--- a/01_HW/06_MP/09_BOM/IGSHARE_Project2_SMT전달 자료(MP4차).xlsx
+++ b/01_HW/06_MP/09_BOM/IGSHARE_Project2_SMT전달 자료(MP4차).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01_work\Igs_snv_data\PROJECT_02\01_HW\06_MP\09_BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01_work\git\02_PGS\01_HW\06_MP\09_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="215">
   <si>
     <t xml:space="preserve">BILL OF MATERIAL </t>
   </si>
@@ -359,9 +359,6 @@
     <t>비고</t>
   </si>
   <si>
-    <t>00000007</t>
-  </si>
-  <si>
     <t>200pF</t>
   </si>
   <si>
@@ -374,9 +371,6 @@
     <t>C7</t>
   </si>
   <si>
-    <t>00000008</t>
-  </si>
-  <si>
     <t>680pF</t>
   </si>
   <si>
@@ -386,9 +380,6 @@
     <t>C8</t>
   </si>
   <si>
-    <t>00000154</t>
-  </si>
-  <si>
     <t>1nF</t>
   </si>
   <si>
@@ -398,9 +389,6 @@
     <t>C9</t>
   </si>
   <si>
-    <t>00000174</t>
-  </si>
-  <si>
     <t>560pF</t>
   </si>
   <si>
@@ -410,9 +398,6 @@
     <t>C11</t>
   </si>
   <si>
-    <t>00000082</t>
-  </si>
-  <si>
     <t>100nF</t>
   </si>
   <si>
@@ -422,15 +407,9 @@
     <t>YAGEO</t>
   </si>
   <si>
-    <t>00000173</t>
-  </si>
-  <si>
     <t>C13</t>
   </si>
   <si>
-    <t>00000086</t>
-  </si>
-  <si>
     <t>2.2uF</t>
   </si>
   <si>
@@ -440,15 +419,9 @@
     <t>C15</t>
   </si>
   <si>
-    <t>00000188</t>
-  </si>
-  <si>
     <t>C16, C20</t>
   </si>
   <si>
-    <t>00000088</t>
-  </si>
-  <si>
     <t>15pF</t>
   </si>
   <si>
@@ -458,18 +431,12 @@
     <t>C17,C19</t>
   </si>
   <si>
-    <t>00000189</t>
-  </si>
-  <si>
     <t>680nF</t>
   </si>
   <si>
     <t>C37</t>
   </si>
   <si>
-    <t>00000183</t>
-  </si>
-  <si>
     <t>BAT54</t>
   </si>
   <si>
@@ -482,9 +449,6 @@
     <t>D1,D2</t>
   </si>
   <si>
-    <t>00000190</t>
-  </si>
-  <si>
     <t>MMSD4148T1G</t>
   </si>
   <si>
@@ -497,9 +461,6 @@
     <t>D5,D11,D15,D16,D17</t>
   </si>
   <si>
-    <t>00000191</t>
-  </si>
-  <si>
     <t>JSL_3528URC</t>
   </si>
   <si>
@@ -512,9 +473,6 @@
     <t>D6,D7,D8,D9</t>
   </si>
   <si>
-    <t>00000192</t>
-  </si>
-  <si>
     <t>JSL_3528PGC</t>
   </si>
   <si>
@@ -527,9 +485,6 @@
     <t>J2</t>
   </si>
   <si>
-    <t>00000193</t>
-  </si>
-  <si>
     <t>A2001-WV03</t>
   </si>
   <si>
@@ -542,9 +497,6 @@
     <t>J3</t>
   </si>
   <si>
-    <t>00000043</t>
-  </si>
-  <si>
     <t>MMBT3906</t>
   </si>
   <si>
@@ -557,9 +509,6 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>00000042</t>
-  </si>
-  <si>
     <t>MMBT3904</t>
   </si>
   <si>
@@ -572,9 +521,6 @@
     <t>Q8</t>
   </si>
   <si>
-    <t>00000178</t>
-  </si>
-  <si>
     <t>510K</t>
   </si>
   <si>
@@ -584,18 +530,12 @@
     <t>R1</t>
   </si>
   <si>
-    <t>00000194</t>
-  </si>
-  <si>
     <t>15, 2012, 1%</t>
   </si>
   <si>
     <t>R2,R8</t>
   </si>
   <si>
-    <t>00000079</t>
-  </si>
-  <si>
     <t>47K</t>
   </si>
   <si>
@@ -605,9 +545,6 @@
     <t>R3,R33</t>
   </si>
   <si>
-    <t>00000022</t>
-  </si>
-  <si>
     <t>10K</t>
   </si>
   <si>
@@ -617,9 +554,6 @@
     <t>R6,R7,R15,R16,R22,R24,R42</t>
   </si>
   <si>
-    <t>00000132</t>
-  </si>
-  <si>
     <t>1K</t>
   </si>
   <si>
@@ -629,27 +563,18 @@
     <t>R10</t>
   </si>
   <si>
-    <t>00000175</t>
-  </si>
-  <si>
     <t>1M</t>
   </si>
   <si>
     <t>1M, 1608, 1%</t>
   </si>
   <si>
-    <t>00000133</t>
-  </si>
-  <si>
     <t>200, 1608, 1%</t>
   </si>
   <si>
     <t>R25</t>
   </si>
   <si>
-    <t>00000196</t>
-  </si>
-  <si>
     <t>360K</t>
   </si>
   <si>
@@ -659,18 +584,12 @@
     <t>R28</t>
   </si>
   <si>
-    <t>00000177</t>
-  </si>
-  <si>
     <t>100K</t>
   </si>
   <si>
     <t>100K, 1608, 1%</t>
   </si>
   <si>
-    <t>00000198</t>
-  </si>
-  <si>
     <t>2.7K</t>
   </si>
   <si>
@@ -680,9 +599,6 @@
     <t>R38,R44</t>
   </si>
   <si>
-    <t>00000199</t>
-  </si>
-  <si>
     <t>3K</t>
   </si>
   <si>
@@ -692,18 +608,12 @@
     <t>R40,R46</t>
   </si>
   <si>
-    <t>00000003</t>
-  </si>
-  <si>
     <t>4.7K</t>
   </si>
   <si>
     <t>1608, 4.7K, 1%</t>
   </si>
   <si>
-    <t>00000055</t>
-  </si>
-  <si>
     <t>TL072ID</t>
   </si>
   <si>
@@ -716,9 +626,6 @@
     <t>U2</t>
   </si>
   <si>
-    <t>00000201</t>
-  </si>
-  <si>
     <t>LP2951D</t>
   </si>
   <si>
@@ -729,9 +636,6 @@
   </si>
   <si>
     <t>U5</t>
-  </si>
-  <si>
-    <t>00000150</t>
   </si>
   <si>
     <t>SX-1</t>
@@ -785,18 +689,12 @@
     <t>C5</t>
   </si>
   <si>
-    <t>00000222</t>
-  </si>
-  <si>
     <t>T05RC07</t>
   </si>
   <si>
     <t>D1,D2,D3,D4,D5,D6</t>
   </si>
   <si>
-    <t>00000223</t>
-  </si>
-  <si>
     <t>T05GC03</t>
   </si>
   <si>
@@ -822,9 +720,6 @@
   </si>
   <si>
     <t>R9,R11</t>
-  </si>
-  <si>
-    <t>00000213</t>
   </si>
   <si>
     <t>ATMEGA48PA-AU</t>
@@ -837,9 +732,6 @@
     <t>R61,R63,R65,R67,R69,R71,R73,R75</t>
   </si>
   <si>
-    <t>00000236</t>
-  </si>
-  <si>
     <t>사용 수량</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
@@ -896,10 +788,6 @@
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
-    <t>00000240</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
     <t>360, 2012, 1%</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
@@ -956,10 +844,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TRJA685K016RNJ</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
     <t>6.8uF, 3216, 16V, 10%, Tant</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
@@ -980,10 +864,6 @@
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
-    <t>00000212</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
     <t>BCV27</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
@@ -992,10 +872,6 @@
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
-    <t>00000239</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
     <t>2K</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
@@ -1056,10 +932,6 @@
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
-    <t>TRJA685K016RNJ</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
     <t>6.8uF, 3216, 16V, 10%, Tant</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
@@ -1154,6 +1026,9 @@
   <si>
     <t>P2</t>
     <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCSCS1C685MAAR</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1038,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3607,12 +3482,12 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
@@ -3631,9 +3506,9 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="36" customHeight="1">
       <c r="A1" s="88" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -3646,7 +3521,7 @@
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
     </row>
-    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="36" customHeight="1">
       <c r="A2" s="91"/>
       <c r="B2" s="92"/>
       <c r="C2" s="92"/>
@@ -3659,7 +3534,7 @@
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="94" t="s">
         <v>1</v>
       </c>
@@ -3670,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>3</v>
@@ -3683,26 +3558,26 @@
       <c r="K3" s="20"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="94" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="95"/>
       <c r="C4" s="96"/>
       <c r="D4" s="80" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="G4" s="85" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="81">
-        <v>43133</v>
+        <v>43151</v>
       </c>
       <c r="I4" s="82" t="s">
         <v>8</v>
@@ -3713,7 +3588,7 @@
       <c r="K4" s="27"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -3739,43 +3614,41 @@
         <v>16</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="J5" s="59" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="K5" s="60" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="86">
         <v>1</v>
       </c>
       <c r="B6" s="33">
-        <f>COUNTIF(C:C,C6)</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="34" t="s">
+        <f t="shared" ref="B6:B43" si="0">COUNTIF(C:C,C6)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="E6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="F6" s="67" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>21</v>
       </c>
       <c r="G6" s="36">
         <v>1</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="56">
         <f>G6*$J$4</f>
@@ -3785,1218 +3658,1158 @@
       <c r="K6" s="21"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="86">
         <v>2</v>
       </c>
       <c r="B7" s="33">
-        <f>COUNTIF(C:C,C7)</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="34" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" s="67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="36">
         <v>1</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="56">
-        <f t="shared" ref="I7:I43" si="0">G7*$J$4</f>
+        <f t="shared" ref="I7:I43" si="1">G7*$J$4</f>
         <v>5000</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
       <c r="L7" s="22"/>
     </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="86">
         <v>3</v>
       </c>
       <c r="B8" s="33">
-        <f>COUNTIF(C:C,C8)</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>27</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="34"/>
       <c r="D8" s="35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="36">
         <v>1</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I8" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="86">
         <v>4</v>
       </c>
       <c r="B9" s="33">
-        <f>COUNTIF(C:C,C9)</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>31</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="34"/>
       <c r="D9" s="35" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F9" s="36"/>
       <c r="G9" s="36">
         <v>1</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I9" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="86">
         <v>5</v>
       </c>
       <c r="B10" s="33">
-        <f>COUNTIF(C:C,C10)</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>35</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="34"/>
       <c r="D10" s="29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G10" s="36">
         <v>3</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="I10" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:13" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="13" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="86">
         <v>6</v>
       </c>
       <c r="B11" s="33">
-        <f>COUNTIF(C:C,C11)</f>
-        <v>1</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>39</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="34"/>
       <c r="D11" s="35" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="36">
         <v>1</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I11" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="22"/>
     </row>
-    <row r="12" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="86">
         <v>7</v>
       </c>
       <c r="B12" s="33">
-        <f>COUNTIF(C:C,C12)</f>
-        <v>1</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>41</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="34"/>
       <c r="D12" s="29" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="36">
         <v>1</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I12" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="86">
         <v>8</v>
       </c>
       <c r="B13" s="33">
-        <f>COUNTIF(C:C,C13)</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>45</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="34"/>
       <c r="D13" s="87" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="G13" s="36">
         <v>2</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I13" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="86">
         <v>9</v>
       </c>
       <c r="B14" s="33">
-        <f>COUNTIF(C:C,C14)</f>
-        <v>1</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>47</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="34"/>
       <c r="D14" s="29" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="36">
         <v>2</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I14" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="86">
         <v>10</v>
       </c>
       <c r="B15" s="33">
-        <f>COUNTIF(C:C,C15)</f>
-        <v>1</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>51</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="34"/>
       <c r="D15" s="68" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="36">
         <v>1</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I15" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="86">
         <v>11</v>
       </c>
       <c r="B16" s="33">
-        <f>COUNTIF(C:C,C16)</f>
-        <v>1</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>54</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="34"/>
       <c r="D16" s="35" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F16" s="66" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G16" s="22">
         <v>2</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I16" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="86">
         <v>12</v>
       </c>
       <c r="B17" s="33">
-        <f>COUNTIF(C:C,C17)</f>
-        <v>1</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>59</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="34"/>
       <c r="D17" s="68" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G17" s="36">
         <v>5</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I17" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="86">
         <v>13</v>
       </c>
       <c r="B18" s="33">
-        <f>COUNTIF(C:C,C18)</f>
-        <v>1</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>64</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="34"/>
       <c r="D18" s="68" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G18" s="36">
         <v>4</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I18" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="86">
         <v>14</v>
       </c>
       <c r="B19" s="33">
-        <f>COUNTIF(C:C,C19)</f>
-        <v>1</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>69</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="34"/>
       <c r="D19" s="68" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G19" s="36">
         <v>4</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I19" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="86">
         <v>15</v>
       </c>
       <c r="B20" s="33">
-        <f>COUNTIF(C:C,C20)</f>
-        <v>1</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>175</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="19"/>
       <c r="D20" s="18" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="F20" s="79" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="G20" s="36">
         <v>1</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I20" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="86">
         <v>16</v>
       </c>
       <c r="B21" s="33">
-        <f>COUNTIF(C:C,C21)</f>
-        <v>1</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>74</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="34"/>
       <c r="D21" s="68" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F21" s="70" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G21" s="36">
         <v>1</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="I21" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="86">
         <v>17</v>
       </c>
       <c r="B22" s="33">
-        <f>COUNTIF(C:C,C22)</f>
-        <v>1</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>79</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="34"/>
       <c r="D22" s="35" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F22" s="66" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G22" s="36">
         <v>1</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I22" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="86">
         <v>18</v>
       </c>
       <c r="B23" s="33">
-        <f>COUNTIF(C:C,C23)</f>
-        <v>1</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>84</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="34"/>
       <c r="D23" s="35" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F23" s="66" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G23" s="36">
         <v>7</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I23" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35000</v>
       </c>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="86">
         <v>19</v>
       </c>
       <c r="B24" s="33">
-        <f>COUNTIF(C:C,C24)</f>
-        <v>1</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>211</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="34"/>
       <c r="D24" s="35" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="F24" s="66" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G24" s="36">
         <v>1</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I24" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="86">
         <v>20</v>
       </c>
       <c r="B25" s="33">
-        <f>COUNTIF(C:C,C25)</f>
-        <v>1</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>89</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="34"/>
       <c r="D25" s="35" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="36">
         <v>1</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="I25" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="86">
         <v>21</v>
       </c>
       <c r="B26" s="33">
-        <f>COUNTIF(C:C,C26)</f>
-        <v>1</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>93</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="34"/>
       <c r="D26" s="38">
         <v>15</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="36">
         <v>2</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I26" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="86">
         <v>22</v>
       </c>
       <c r="B27" s="33">
-        <f>COUNTIF(C:C,C27)</f>
-        <v>1</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>96</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="34"/>
       <c r="D27" s="29" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="36">
         <v>2</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="I27" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="86">
         <v>23</v>
       </c>
       <c r="B28" s="33">
-        <f>COUNTIF(C:C,C28)</f>
-        <v>1</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>100</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="34"/>
       <c r="D28" s="35" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E28" s="71" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F28" s="61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" s="36">
         <v>7</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I28" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35000</v>
       </c>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="86">
         <v>24</v>
       </c>
       <c r="B29" s="33">
-        <f>COUNTIF(C:C,C29)</f>
-        <v>1</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>104</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="34"/>
       <c r="D29" s="35" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F29" s="36"/>
       <c r="G29" s="72">
         <v>9</v>
       </c>
       <c r="H29" s="63" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="I29" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45000</v>
       </c>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="86">
         <v>25</v>
       </c>
       <c r="B30" s="33">
-        <f>COUNTIF(C:C,C30)</f>
-        <v>1</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>108</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="34"/>
       <c r="D30" s="35" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36">
         <v>1</v>
       </c>
       <c r="H30" s="65" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="I30" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="K30" s="21"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="86"/>
-      <c r="B31" s="33"/>
+    <row r="31" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="86">
+        <v>26</v>
+      </c>
+      <c r="B31" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C31" s="34"/>
       <c r="D31" s="35" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36">
         <v>1</v>
       </c>
       <c r="H31" s="65" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="I31" s="56">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="86">
+        <v>27</v>
+      </c>
+      <c r="B32" s="33">
         <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="K31" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="L31" s="22"/>
-    </row>
-    <row r="32" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="86"/>
-      <c r="B32" s="33"/>
+        <v>0</v>
+      </c>
       <c r="C32" s="34"/>
       <c r="D32" s="35" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="36">
         <v>1</v>
       </c>
       <c r="H32" s="65" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="I32" s="56">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="86">
+        <v>28</v>
+      </c>
+      <c r="B33" s="33">
         <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="K32" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="L32" s="22"/>
-    </row>
-    <row r="33" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="86">
-        <v>26</v>
-      </c>
-      <c r="B33" s="33">
-        <f>COUNTIF(C:C,C33)</f>
-        <v>1</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C33" s="34"/>
       <c r="D33" s="35">
         <v>200</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="36">
         <v>1</v>
       </c>
       <c r="H33" s="37" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="I33" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="86">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B34" s="33">
-        <f>COUNTIF(C:C,C34)</f>
-        <v>1</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>114</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="34"/>
       <c r="D34" s="38" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E34" s="78" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="36">
         <v>1</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="I34" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="86">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B35" s="33">
-        <f>COUNTIF(C:C,C35)</f>
-        <v>1</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>118</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="34"/>
       <c r="D35" s="35" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="36">
         <v>2</v>
       </c>
       <c r="H35" s="65" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="I35" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="K35" s="21"/>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="86">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B36" s="33">
-        <f>COUNTIF(C:C,C36)</f>
-        <v>1</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>214</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="34"/>
       <c r="D36" s="73" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="E36" s="73" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="36">
         <v>2</v>
       </c>
       <c r="H36" s="65" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="I36" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="86">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B37" s="33">
-        <f>COUNTIF(C:C,C37)</f>
-        <v>1</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>121</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="34"/>
       <c r="D37" s="38" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="E37" s="78" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="F37" s="36"/>
       <c r="G37" s="36">
         <v>2</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="I37" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="86">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B38" s="33">
-        <f>COUNTIF(C:C,C38)</f>
-        <v>1</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>125</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="34"/>
       <c r="D38" s="38" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E38" s="78" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="36">
         <v>2</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="I38" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="86">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B39" s="33">
-        <f>COUNTIF(C:C,C39)</f>
-        <v>1</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>129</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="34"/>
       <c r="D39" s="35" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="F39" s="67"/>
       <c r="G39" s="75">
         <v>8</v>
       </c>
       <c r="H39" s="76" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="I39" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="86">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B40" s="33">
-        <f>COUNTIF(C:C,C40)</f>
-        <v>1</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>132</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="34"/>
       <c r="D40" s="74" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="E40" s="74" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G40" s="36">
         <v>1</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="I40" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="86">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B41" s="33">
-        <f>COUNTIF(C:C,C41)</f>
-        <v>1</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>137</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="34"/>
       <c r="D41" s="38" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G41" s="36">
         <v>1</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="I41" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="86">
-        <v>35</v>
-      </c>
-      <c r="B42" s="23">
-        <f>COUNTIF(C:C,C42)</f>
-        <v>1</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>171</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B42" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="41"/>
       <c r="D42" s="47" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="F42" s="54" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="G42" s="36">
         <v>1</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="I42" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:12" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A43" s="86">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B43" s="33">
-        <f>COUNTIF(C:C,C43)</f>
-        <v>1</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>142</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="34"/>
       <c r="D43" s="35" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="F43" s="64" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="G43" s="36">
         <v>1</v>
       </c>
       <c r="H43" s="63" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="I43" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="J43" s="21"/>
@@ -5025,10 +4838,10 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
@@ -5047,7 +4860,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
@@ -5062,7 +4875,7 @@
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
     </row>
-    <row r="2" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="43.5" customHeight="1">
       <c r="A2" s="91"/>
       <c r="B2" s="92"/>
       <c r="C2" s="92"/>
@@ -5075,7 +4888,7 @@
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="94" t="s">
         <v>1</v>
       </c>
@@ -5086,7 +4899,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>3</v>
@@ -5099,20 +4912,20 @@
       <c r="K3" s="20"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="16.5">
       <c r="A4" s="94" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="95"/>
       <c r="C4" s="96"/>
       <c r="D4" s="80" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="G4" s="85" t="s">
         <v>7</v>
@@ -5121,7 +4934,7 @@
         <v>43133</v>
       </c>
       <c r="I4" s="83" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="J4" s="55">
         <v>1500</v>
@@ -5129,7 +4942,7 @@
       <c r="K4" s="27"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="16.5">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -5155,43 +4968,41 @@
         <v>16</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="16">
         <v>1</v>
       </c>
       <c r="B6" s="23">
         <f t="shared" ref="B6:B25" si="0">COUNTIF(C:C,C6)</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C6" s="41"/>
       <c r="D6" s="42" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="G6" s="43">
         <v>2</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="I6" s="56">
         <f>G6*$J$4</f>
@@ -5201,31 +5012,29 @@
       <c r="K6" s="21"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="16">
         <v>2</v>
       </c>
       <c r="B7" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C7" s="45"/>
       <c r="D7" s="42" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="G7" s="43">
         <v>1</v>
       </c>
       <c r="H7" s="77" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="I7" s="56">
         <f t="shared" ref="I7:I25" si="1">G7*$J$4</f>
@@ -5235,31 +5044,29 @@
       <c r="K7" s="28"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="16">
         <v>3</v>
       </c>
       <c r="B8" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C8" s="41"/>
       <c r="D8" s="46" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="G8" s="43">
         <v>1</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="I8" s="56">
         <f t="shared" si="1"/>
@@ -5269,31 +5076,29 @@
       <c r="K8" s="21"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="16">
         <v>4</v>
       </c>
       <c r="B9" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C9" s="41"/>
       <c r="D9" s="42" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="G9" s="43">
         <v>1</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="I9" s="56">
         <f t="shared" si="1"/>
@@ -5303,29 +5108,27 @@
       <c r="K9" s="21"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="16">
         <v>5</v>
       </c>
       <c r="B10" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C10" s="41"/>
       <c r="D10" s="46" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="43">
         <v>1</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="56">
         <f t="shared" si="1"/>
@@ -5335,31 +5138,29 @@
       <c r="K10" s="29"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:13" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="13" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="16">
         <v>6</v>
       </c>
       <c r="B11" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="57" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="G11" s="43">
         <v>6</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="I11" s="56">
         <f t="shared" si="1"/>
@@ -5369,31 +5170,29 @@
       <c r="K11" s="21"/>
       <c r="L11" s="22"/>
     </row>
-    <row r="12" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="16">
         <v>7</v>
       </c>
       <c r="B12" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C12" s="17"/>
       <c r="D12" s="57" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="G12" s="43">
         <v>6</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="I12" s="56">
         <f t="shared" si="1"/>
@@ -5403,31 +5202,29 @@
       <c r="K12" s="29"/>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="16">
         <v>8</v>
       </c>
       <c r="B13" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C13" s="41"/>
       <c r="D13" s="46" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="G13" s="43">
         <v>5</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="I13" s="56">
         <f t="shared" si="1"/>
@@ -5437,19 +5234,17 @@
       <c r="K13" s="29"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="16">
         <v>9</v>
       </c>
       <c r="B14" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C14" s="19"/>
       <c r="D14" s="18" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="43"/>
@@ -5457,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I14" s="56">
         <f t="shared" si="1"/>
@@ -5467,31 +5262,29 @@
       <c r="K14" s="21"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="16">
         <v>10</v>
       </c>
       <c r="B15" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C15" s="41"/>
       <c r="D15" s="25" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="G15" s="43">
         <v>5</v>
       </c>
       <c r="H15" s="77" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="I15" s="56">
         <f t="shared" si="1"/>
@@ -5501,29 +5294,27 @@
       <c r="K15" s="29"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="16">
         <v>11</v>
       </c>
       <c r="B16" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C16" s="41"/>
       <c r="D16" s="42">
         <v>360</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="43">
         <v>2</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="I16" s="56">
         <f t="shared" si="1"/>
@@ -5533,29 +5324,27 @@
       <c r="K16" s="21"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="16">
         <v>12</v>
       </c>
       <c r="B17" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C17" s="41"/>
       <c r="D17" s="48" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F17" s="43"/>
       <c r="G17" s="43">
         <v>2</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="I17" s="56">
         <f t="shared" si="1"/>
@@ -5565,31 +5354,29 @@
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="16">
         <v>13</v>
       </c>
       <c r="B18" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C18" s="41"/>
       <c r="D18" s="25" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="43">
         <v>1</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="I18" s="56">
         <f t="shared" si="1"/>
@@ -5599,29 +5386,27 @@
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="16">
         <v>14</v>
       </c>
       <c r="B19" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C19" s="41"/>
       <c r="D19" s="48" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="51">
         <v>2</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="I19" s="56">
         <f t="shared" si="1"/>
@@ -5631,31 +5416,29 @@
       <c r="K19" s="29"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="16">
         <v>15</v>
       </c>
       <c r="B20" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C20" s="41"/>
       <c r="D20" s="42" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="G20" s="43">
         <v>1</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="I20" s="56">
         <f t="shared" si="1"/>
@@ -5665,29 +5448,27 @@
       <c r="K20" s="29"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="16">
         <v>16</v>
       </c>
       <c r="B21" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C21" s="41"/>
       <c r="D21" s="52" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="43">
         <v>2</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="I21" s="56">
         <f t="shared" si="1"/>
@@ -5697,29 +5478,27 @@
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="16">
         <v>17</v>
       </c>
       <c r="B22" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C22" s="41"/>
       <c r="D22" s="48" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="43">
         <v>1</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="I22" s="56">
         <f t="shared" si="1"/>
@@ -5729,31 +5508,29 @@
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="16">
         <v>18</v>
       </c>
       <c r="B23" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C23" s="41"/>
       <c r="D23" s="47" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="G23" s="43">
         <v>1</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="I23" s="56">
         <f t="shared" si="1"/>
@@ -5763,31 +5540,29 @@
       <c r="K23" s="21"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="16">
         <v>19</v>
       </c>
       <c r="B24" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C24" s="41"/>
       <c r="D24" s="48" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="G24" s="43">
         <v>1</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="I24" s="56">
         <f t="shared" si="1"/>
@@ -5797,31 +5572,29 @@
       <c r="K24" s="21"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="16">
         <v>20</v>
       </c>
       <c r="B25" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C25" s="41"/>
       <c r="D25" s="52" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="E25" s="53" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="G25" s="43">
         <v>1</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="I25" s="56">
         <f t="shared" si="1"/>
